--- a/biology/Médecine/Section_d'éducation_et_d'enseignement_spécialisé/Section_d'éducation_et_d'enseignement_spécialisé.xlsx
+++ b/biology/Médecine/Section_d'éducation_et_d'enseignement_spécialisé/Section_d'éducation_et_d'enseignement_spécialisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Section_d%27%C3%A9ducation_et_d%27enseignement_sp%C3%A9cialis%C3%A9</t>
+          <t>Section_d'éducation_et_d'enseignement_spécialisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sections d'éducation et d'enseignement spécialisé (SEES), anciennement instituts médicopédagogiques (IMP) (les deux termes sont d'usage[1]) sont des centres de soins et éducation spéciaux (enseignement et pratique) en France qui accueillent des enfants et adolescents handicapés de 3 à 14 ans, présentant une déficience à prédominance intellectuelle liée à des troubles neuropsychiatriques : troubles de la personnalité, moteurs et sensoriels, de la communication.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sections d'éducation et d'enseignement spécialisé (SEES), anciennement instituts médicopédagogiques (IMP) (les deux termes sont d'usage) sont des centres de soins et éducation spéciaux (enseignement et pratique) en France qui accueillent des enfants et adolescents handicapés de 3 à 14 ans, présentant une déficience à prédominance intellectuelle liée à des troubles neuropsychiatriques : troubles de la personnalité, moteurs et sensoriels, de la communication.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Section_d%27%C3%A9ducation_et_d%27enseignement_sp%C3%A9cialis%C3%A9</t>
+          <t>Section_d'éducation_et_d'enseignement_spécialisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une éducation spéciale est dispensée en tenant compte des aspects psychologiques et psychopathologiques et le cas échéant, des techniques de rééducation : orthophonie, psychomotricité, kinésithérapie. 
 l'éducation générale et pratique adaptée aux possibilités intellectuelles de chacun,
